--- a/text2img/input.xlsx
+++ b/text2img/input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16548" windowHeight="7175"/>
+    <workbookView windowWidth="17171" windowHeight="8772"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="4" r:id="rId1"/>
@@ -984,7 +984,7 @@
   <dimension ref="A1:A78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
